--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583249.611784171</v>
+        <v>2690479.05318226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8996340.821973087</v>
+        <v>9009789.267352728</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>314.8307300464305</v>
       </c>
       <c r="H2" t="n">
-        <v>189.055385630931</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>99.20366089674617</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>10.61541798148608</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>360.3655810012735</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>24.50504034245415</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>148.5873298926978</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>44.65112812757569</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>39.67788952565956</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>186.8460807091488</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>78.26379205172486</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>185.3657896277587</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>19.17715139986178</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0429659719017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>73.78417491007313</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1895,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,19 +2052,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>68.07731664460587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>125.2193560244677</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>240.5320234084492</v>
+        <v>104.7777418077836</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5730368512059</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>33.48499328953009</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>29.67382008037378</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>29.67382008037395</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>60.11729550773727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484972</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>178.2798710842938</v>
       </c>
       <c r="W37" t="n">
-        <v>93.38904885909308</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>59.00369384633034</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>174.3474135131859</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,16 +4185,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>106.1949878935057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>186.8063084124839</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.986492286525</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.023975346113</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.023975346113</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="E2" t="n">
-        <v>731.2357227478687</v>
+        <v>846.6171789524601</v>
       </c>
       <c r="F2" t="n">
-        <v>320.2498179582612</v>
+        <v>435.6312741628525</v>
       </c>
       <c r="G2" t="n">
-        <v>308.5854717229541</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.986492286525</v>
+        <v>1232.405431550704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.931248730034</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.0447030767627</v>
+        <v>1351.187324333511</v>
       </c>
       <c r="C4" t="n">
-        <v>454.1085201488559</v>
+        <v>1351.187324333511</v>
       </c>
       <c r="D4" t="n">
-        <v>303.9918807365201</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1326.511321324197</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.511321324197</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.82683311831</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.82683311831</v>
+        <v>1760.825340061768</v>
       </c>
       <c r="X4" t="n">
-        <v>843.8372822202929</v>
+        <v>1532.83578916375</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.0447030767627</v>
+        <v>1532.83578916375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484276</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543864</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>899.0708859371136</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E5" t="n">
-        <v>513.2826333388693</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>506.3371325896659</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>91.26468243466235</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524209</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548397</v>
+        <v>1500.227517577122</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8175152271517</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>918.0161179218669</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>918.0161179218669</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>1291.481876182947</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>918.0161179218669</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>918.0161179218669</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311.7508871962312</v>
+        <v>388.1694341876315</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1557.391784668715</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1334.41330386345</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1045.294966367288</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="X10" t="n">
-        <v>493.3993520264709</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="Y10" t="n">
-        <v>493.3993520264709</v>
+        <v>569.8178990178711</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1958.090220510648</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5360,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>417.6289352913128</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>250.4328360061928</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5498,25 +5500,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228102</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782709</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2311.15241352498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2091.550948547922</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342035</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>2565.513299557011</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>3658.217393399321</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>3658.217393399321</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>4210.127123638608</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>4633.750273133676</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>3195.647281583947</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>2876.594459243705</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.499440703994</v>
+        <v>4115.495046492695</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.814952498107</v>
+        <v>4115.495046492695</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>3826.077876455734</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>3598.088325557717</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>3377.295746414187</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K24" t="n">
-        <v>2233.355914590558</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="L24" t="n">
-        <v>2728.681520806317</v>
+        <v>2726.914133601549</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.44064873475</v>
+        <v>3324.292621228101</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>3951.890584782708</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>4503.800315021995</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q24" t="n">
         <v>4690.833152398593</v>
@@ -6093,25 +6095,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1433.701365648819</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6309,19 +6311,19 @@
         <v>2565.513299557012</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>3162.891787183563</v>
       </c>
       <c r="N27" t="n">
-        <v>3658.217393399322</v>
+        <v>3790.48975073817</v>
       </c>
       <c r="O27" t="n">
-        <v>4210.127123638609</v>
+        <v>4342.399480977458</v>
       </c>
       <c r="P27" t="n">
-        <v>4633.750273133677</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q27" t="n">
         <v>4690.833152398593</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>961.4446166151475</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C28" t="n">
-        <v>792.5084336872407</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D28" t="n">
-        <v>642.3917942749049</v>
+        <v>665.5244698858705</v>
       </c>
       <c r="E28" t="n">
-        <v>494.4787006925118</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>347.5887531946014</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1363.885660588917</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1143.093081445387</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,34 +6481,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2728.681520806317</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>3326.060008432869</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>3953.657971987476</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6607,16 +6609,16 @@
         <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,16 +6651,16 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2167.088989850826</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1878.013763195024</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V31" t="n">
-        <v>1623.329274989137</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1333.912104952176</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
         <v>1333.912104952176</v>
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>2726.91413360155</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U34" t="n">
-        <v>4288.376853076439</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V34" t="n">
-        <v>4033.692364870552</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>3342.537229081858</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.838905772771</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399323</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>4138.923422159307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3752.175244810115</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.368993063877</v>
+        <v>3752.175244810115</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.379442165859</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7157,67 +7159,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>2231.588527385791</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,10 +7684,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591808</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1728.890000432079</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1439.472830395119</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.483279497101</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.7516311504069</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>265.030432851514</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515138</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.69998683092876</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.78901421003559</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.51053793615075</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>112.9489693570387</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.65245098079498</v>
+        <v>181.4067325814605</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>47.04243616700643</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>226.4057028288537</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.5487903941874</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>73.8577722395342</v>
       </c>
       <c r="W37" t="n">
-        <v>193.1339494774979</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>193.1339494774977</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>111.8370608760582</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>31.77834493961092</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794439.3219525022</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787309.0089512172</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787309.0089512172</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26316,43 @@
         <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.794702795763693e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.3471980833</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808328</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731954</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26442,16 +26444,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732036</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732007</v>
+        <v>8117.312426732034</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732056</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685174.1403862011</v>
+        <v>-685174.1403862013</v>
       </c>
       <c r="C6" t="n">
-        <v>258156.3865198441</v>
+        <v>429577.6431897185</v>
       </c>
       <c r="D6" t="n">
-        <v>461595.12813195</v>
+        <v>429577.6431897187</v>
       </c>
       <c r="E6" t="n">
-        <v>211064.9756940111</v>
+        <v>28991.99587682054</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013663</v>
+        <v>536477.4375013661</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013664</v>
+        <v>536477.437501366</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.4375013661</v>
+        <v>536477.437501366</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013661</v>
+        <v>536477.437501366</v>
       </c>
       <c r="J6" t="n">
-        <v>368872.2596913832</v>
+        <v>368872.2596913835</v>
       </c>
       <c r="K6" t="n">
-        <v>487367.3447953115</v>
+        <v>536477.4375013659</v>
       </c>
       <c r="L6" t="n">
-        <v>536477.4375013657</v>
+        <v>536477.437501366</v>
       </c>
       <c r="M6" t="n">
-        <v>451422.4095658544</v>
+        <v>403870.1437724394</v>
       </c>
       <c r="N6" t="n">
+        <v>536477.437501366</v>
+      </c>
+      <c r="O6" t="n">
         <v>536477.4375013658</v>
-      </c>
-      <c r="O6" t="n">
-        <v>536477.437501366</v>
       </c>
       <c r="P6" t="n">
         <v>536477.437501366</v>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>96.71697272652352</v>
       </c>
       <c r="H2" t="n">
-        <v>111.9631669314743</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>49.41181212146618</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>210.1332780157259</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4.907310769734067</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>270.1027240448663</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>17.4384783663304</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>176.0975678696362</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>315.0051520950234</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>182.8850199693202</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>116.3986683100126</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>40.34386576127847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29521,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29992,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.157194799753628e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,10 +30273,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30283,10 +30285,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32020,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32078,25 +32080,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32327,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927443</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32563,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>197.6412480909875</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,7 +32797,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>269.1634560719501</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870023</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>223.6976288294623</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M33" t="n">
-        <v>698.8508668798645</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>616.9033572954382</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,25 +34216,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>617.0987427660941</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>316.2323534812614</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>600.4551148476371</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>562.7107934893641</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35975,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627482999</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36211,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>57.65947400496596</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>127.0294221499318</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556927</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>81.10138438501788</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M33" t="n">
-        <v>556.7168329578461</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>485.5616452121049</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2690479.05318226</v>
+        <v>2686341.895932109</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.8307300464305</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>269.0308339684731</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>99.20366089674617</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>80.45521946244367</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>360.3655810012735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>139.7768546831837</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>44.65112812757569</v>
+        <v>47.53763001944606</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>39.67788952565956</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>49.35425813889925</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.28371368070787</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>78.26379205172486</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1319933510085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>73.78417491007313</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>125.2193560244677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>104.7777418077836</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>101.5730368512059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>187.0564927499865</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>33.48499328953009</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>124.8808320771208</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>113.5028334418564</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,25 +3474,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>178.2798710842938</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>59.00369384633034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>75.55208621972916</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.8063084124839</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.405431550704</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.405431550704</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.405431550704</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="E2" t="n">
-        <v>846.6171789524601</v>
+        <v>1216.059407937305</v>
       </c>
       <c r="F2" t="n">
-        <v>435.6312741628525</v>
+        <v>805.0735031476977</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>389.3687528719865</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1232.405431550704</v>
+        <v>1601.847660535549</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1351.187324333511</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>1351.187324333511</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>1250.981606255989</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.981606255989</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255989</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.360847594891</v>
+        <v>1452.594815143166</v>
       </c>
       <c r="U4" t="n">
-        <v>2050.242510098728</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="V4" t="n">
-        <v>2050.242510098728</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="W4" t="n">
-        <v>1760.825340061768</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.83578916375</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="Y4" t="n">
-        <v>1532.83578916375</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.227517577122</v>
+        <v>1716.437901607243</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1347.475384666831</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953475</v>
+        <v>989.2096860600809</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>603.4214334618366</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>192.4355286722291</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190807</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847236</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577122</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577122</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.227517577122</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>483.0441129489463</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>624.8936537153462</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800313</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1394.715222610545</v>
+        <v>1289.21615764949</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.715222610545</v>
+        <v>1289.21615764949</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.030734404658</v>
+        <v>1034.531669443603</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>1034.531669443603</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>806.5421185455859</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>806.5421185455859</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218669</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218669</v>
+        <v>918.472673685201</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>560.2069750784506</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>174.4187224802063</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>167.4732217310029</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816094</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872926</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923563</v>
@@ -4822,34 +4822,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532452</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796632</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453061</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182947</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218669</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218669</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.1694341876315</v>
+        <v>706.8033708781531</v>
       </c>
       <c r="C10" t="n">
-        <v>219.2332512597245</v>
+        <v>537.8671879502463</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>387.7505485379105</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>239.8374549555174</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>92.94750745760703</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800314</v>
+        <v>92.94750745760703</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1557.391784668715</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1334.41330386345</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1045.294966367288</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>790.6104781614013</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W10" t="n">
-        <v>790.6104781614013</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X10" t="n">
-        <v>790.6104781614013</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y10" t="n">
-        <v>569.8178990178711</v>
+        <v>888.4518357083929</v>
       </c>
     </row>
     <row r="11">
@@ -5020,40 +5020,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532264</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>417.6289352913128</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>250.4328360061928</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557011</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399321</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3658.217393399321</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4210.127123638608</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4633.750273133676</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583947</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.495046492695</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.495046492695</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.077876455734</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3598.088325557717</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414187</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.914133601549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3951.890584782708</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4503.800315021995</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900017</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3162.891787183563</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3790.48975073817</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4342.399480977458</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5772922261132</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6411092982063</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>665.5244698858705</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3342.537229081858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081858</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>599.4606235519261</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>3752.175244810115</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>3752.175244810115</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>3524.185693912098</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7159,67 +7159,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,22 +7496,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1357.386127043032</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.6374272687975</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.2858920990373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>319.4183821282439</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>60.50016306149519</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>265.030432851514</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515138</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.69998683092876</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51053793615075</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>161.3036423121233</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>181.4067325814605</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>47.04243616700643</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>65.08115057384154</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112.9489693570391</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>161.3036423121233</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.91821458107485</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>73.8577722395342</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>193.1339494774977</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.77834493961092</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.415891427</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
@@ -26337,19 +26337,19 @@
         <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520048</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.794702795763693e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26444,16 +26444,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426732034</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685174.1403862013</v>
+        <v>-685174.1403862007</v>
       </c>
       <c r="C6" t="n">
         <v>429577.6431897185</v>
       </c>
       <c r="D6" t="n">
-        <v>429577.6431897187</v>
+        <v>429577.6431897188</v>
       </c>
       <c r="E6" t="n">
-        <v>28991.99587682054</v>
+        <v>28644.61662246289</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013661</v>
+        <v>536130.0582470089</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470088</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="J6" t="n">
-        <v>368872.2596913835</v>
+        <v>368524.880437026</v>
       </c>
       <c r="K6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470087</v>
       </c>
       <c r="L6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470086</v>
       </c>
       <c r="M6" t="n">
-        <v>403870.1437724394</v>
+        <v>403522.7645180819</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.4375013658</v>
+        <v>536130.0582470088</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470091</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>96.71697272652352</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>31.9877185939323</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.41181212146618</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>140.2934765347683</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>4.907310769734067</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>271.7708480897703</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>176.0975678696362</v>
+        <v>173.2110659777659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0051520950234</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>362.1934446340547</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>105.967795474421</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.3986683100126</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.157194799753628e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,10 +30273,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30285,10 +30285,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870023</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34216,25 +34216,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>617.0987427660941</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>247.08765930498</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35029,7 +35029,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>600.4551148476371</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893641</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556927</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2686341.895932109</v>
+        <v>2688102.426234893</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>380.8440225948993</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>269.0308339684731</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80.45521946244367</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>261.8857783797443</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>139.7768546831837</v>
+        <v>377.4567117245233</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>78.8370383812633</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>47.53763001944606</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>14.4137017861247</v>
       </c>
       <c r="G8" t="n">
-        <v>49.35425813889925</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.28371368070787</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.28371368070805</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>61.6215214068367</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>187.0564927499865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.4764219077142</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>103.8146543619971</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>113.5028334418564</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.847660535549</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1601.847660535549</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D2" t="n">
-        <v>1601.847660535549</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.059407937305</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="F2" t="n">
-        <v>805.0735031476977</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>389.3687528719865</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.847660535549</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.847660535549</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1452.594815143166</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V4" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1716.437901607243</v>
+        <v>1587.556048344952</v>
       </c>
       <c r="C5" t="n">
-        <v>1347.475384666831</v>
+        <v>1587.556048344952</v>
       </c>
       <c r="D5" t="n">
-        <v>989.2096860600809</v>
+        <v>1229.290349738202</v>
       </c>
       <c r="E5" t="n">
-        <v>603.4214334618366</v>
+        <v>843.5020971399574</v>
       </c>
       <c r="F5" t="n">
-        <v>192.4355286722291</v>
+        <v>432.5161923503499</v>
       </c>
       <c r="G5" t="n">
         <v>51.2467865680031</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583055</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1716.437901607243</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>483.0441129489463</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.8936537153462</v>
+        <v>449.9329810105319</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>280.996798082625</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>130.8801586702893</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>130.8801586702893</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>130.8801586702893</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>130.8801586702893</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1289.21615764949</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1289.21615764949</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1034.531669443603</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W7" t="n">
-        <v>1034.531669443603</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="X7" t="n">
-        <v>806.5421185455859</v>
+        <v>631.5814458407716</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.5421185455859</v>
+        <v>631.5814458407716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287.435190625613</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C8" t="n">
-        <v>918.472673685201</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D8" t="n">
-        <v>560.2069750784506</v>
+        <v>933.6727333395295</v>
       </c>
       <c r="E8" t="n">
-        <v>174.4187224802063</v>
+        <v>547.8844807412852</v>
       </c>
       <c r="F8" t="n">
-        <v>167.4732217310029</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4801,55 +4801,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816094</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872926</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1674.035030689734</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>706.8033708781531</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>537.8671879502463</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>387.7505485379105</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>239.8374549555174</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>92.94750745760703</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>92.94750745760703</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4992,22 +4992,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.23396574994</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.244414851923</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>888.4518357083929</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2350.747103816259</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5697,13 +5697,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2317.673418815656</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V25" t="n">
-        <v>1788.515128237795</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302817</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>599.4606235519261</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7326,10 +7326,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7402,13 +7402,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7496,22 +7496,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>60.50016306149519</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.1477127454052</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>119.4047645948079</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>65.08115057384154</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>30.95754073885493</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.5907959652912</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>31.91821458107485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914271</v>
@@ -26322,10 +26322,10 @@
         <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
@@ -26334,7 +26334,7 @@
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520047</v>
@@ -26343,19 +26343,19 @@
         <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26441,19 +26441,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685174.1403862007</v>
+        <v>-685174.1403862011</v>
       </c>
       <c r="C6" t="n">
+        <v>429577.6431897188</v>
+      </c>
+      <c r="D6" t="n">
         <v>429577.6431897185</v>
       </c>
-      <c r="D6" t="n">
-        <v>429577.6431897188</v>
-      </c>
       <c r="E6" t="n">
-        <v>28644.61662246289</v>
+        <v>28957.25795138415</v>
       </c>
       <c r="F6" t="n">
-        <v>536130.0582470089</v>
+        <v>536442.69957593</v>
       </c>
       <c r="G6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="H6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="I6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="J6" t="n">
-        <v>368524.880437026</v>
+        <v>368837.5217659473</v>
       </c>
       <c r="K6" t="n">
-        <v>536130.0582470087</v>
+        <v>536442.69957593</v>
       </c>
       <c r="L6" t="n">
-        <v>536130.0582470086</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="M6" t="n">
-        <v>403522.7645180819</v>
+        <v>403835.4058470033</v>
       </c>
       <c r="N6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759299</v>
       </c>
       <c r="O6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="P6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759303</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>26.03202314681209</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>31.9877185939323</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>140.2934765347683</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>24.34137574145632</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>271.7708480897703</v>
+        <v>34.09099104843068</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>68.41447077386557</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>173.2110659777659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>392.4623439555867</v>
       </c>
       <c r="G8" t="n">
-        <v>362.1934446340547</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>105.967795474421</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>179.4649823165039</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>247.08765930498</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
